--- a/output/JGP_20485412000176.xlsx
+++ b/output/JGP_20485412000176.xlsx
@@ -1197,10 +1197,10 @@
         <v>44165</v>
       </c>
       <c r="B74">
-        <v>0.77869107</v>
+        <v>0.77653711</v>
       </c>
       <c r="C74">
-        <v>0.05130975932788084</v>
+        <v>0.05003664382885153</v>
       </c>
     </row>
   </sheetData>

--- a/output/JGP_20485412000176.xlsx
+++ b/output/JGP_20485412000176.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>JGP WM OPT FI EM COTAS DE FI MULTIMERCADO INVESTIMENTO NO EXTERIOR CRÉDITO PRIVADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,821 +383,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41973</v>
       </c>
       <c r="B2">
-        <v>-0.00507416000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42004</v>
       </c>
       <c r="B3">
-        <v>-0.01802451999999999</v>
-      </c>
-      <c r="C3">
         <v>-0.01301640733343501</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42035</v>
       </c>
       <c r="B4">
-        <v>-0.02302214999999996</v>
-      </c>
-      <c r="C4">
         <v>-0.00508936333114951</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42063</v>
       </c>
       <c r="B5">
-        <v>-0.009578929999999986</v>
-      </c>
-      <c r="C5">
         <v>0.01376000489673324</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42094</v>
       </c>
       <c r="B6">
-        <v>0.004862920000000104</v>
-      </c>
-      <c r="C6">
         <v>0.01458152541120716</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42124</v>
       </c>
       <c r="B7">
-        <v>0.04282648</v>
-      </c>
-      <c r="C7">
         <v>0.03777983966211029</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42155</v>
       </c>
       <c r="B8">
-        <v>0.05671518000000009</v>
-      </c>
-      <c r="C8">
         <v>0.01331832310203707</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42185</v>
       </c>
       <c r="B9">
-        <v>0.06599567999999989</v>
-      </c>
-      <c r="C9">
         <v>0.008782404356110218</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42216</v>
       </c>
       <c r="B10">
-        <v>0.0796918499999999</v>
-      </c>
-      <c r="C10">
         <v>0.01284824156135422</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42247</v>
       </c>
       <c r="B11">
-        <v>0.06697407000000011</v>
-      </c>
-      <c r="C11">
         <v>-0.01177908307819475</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42277</v>
       </c>
       <c r="B12">
-        <v>0.03619679999999992</v>
-      </c>
-      <c r="C12">
         <v>-0.02884537765758466</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42308</v>
       </c>
       <c r="B13">
-        <v>0.07511829999999997</v>
-      </c>
-      <c r="C13">
         <v>0.03756188013705519</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42338</v>
       </c>
       <c r="B14">
-        <v>0.09281447999999992</v>
-      </c>
-      <c r="C14">
         <v>0.01645975145246803</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42369</v>
       </c>
       <c r="B15">
-        <v>0.08884069000000006</v>
-      </c>
-      <c r="C15">
         <v>-0.003636289665561399</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42400</v>
       </c>
       <c r="B16">
-        <v>0.09841088000000009</v>
-      </c>
-      <c r="C16">
         <v>0.008789339053815182</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42429</v>
       </c>
       <c r="B17">
-        <v>0.12672908</v>
-      </c>
-      <c r="C17">
         <v>0.02578106291154003</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42460</v>
       </c>
       <c r="B18">
-        <v>0.1489258200000001</v>
-      </c>
-      <c r="C18">
         <v>0.0197001572019424</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42490</v>
       </c>
       <c r="B19">
-        <v>0.1714476199999999</v>
-      </c>
-      <c r="C19">
         <v>0.01960248399674724</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42521</v>
       </c>
       <c r="B20">
-        <v>0.19888135</v>
-      </c>
-      <c r="C20">
         <v>0.02341865699466794</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42551</v>
       </c>
       <c r="B21">
-        <v>0.2271232999999999</v>
-      </c>
-      <c r="C21">
         <v>0.02355691828886974</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42582</v>
       </c>
       <c r="B22">
-        <v>0.2535365199999999</v>
-      </c>
-      <c r="C22">
         <v>0.021524503690868</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42613</v>
       </c>
       <c r="B23">
-        <v>0.2856817</v>
-      </c>
-      <c r="C23">
         <v>0.02564359273713079</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42643</v>
       </c>
       <c r="B24">
-        <v>0.30807114</v>
-      </c>
-      <c r="C24">
         <v>0.01741445024845567</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42674</v>
       </c>
       <c r="B25">
-        <v>0.3286835400000001</v>
-      </c>
-      <c r="C25">
         <v>0.015757858551944</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42704</v>
       </c>
       <c r="B26">
-        <v>0.33413749</v>
-      </c>
-      <c r="C26">
         <v>0.004104777274504201</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42735</v>
       </c>
       <c r="B27">
-        <v>0.3463628999999999</v>
-      </c>
-      <c r="C27">
         <v>0.009163530814204179</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42766</v>
       </c>
       <c r="B28">
-        <v>0.39217697</v>
-      </c>
-      <c r="C28">
         <v>0.03402802468784616</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42794</v>
       </c>
       <c r="B29">
-        <v>0.4092023199999999</v>
-      </c>
-      <c r="C29">
         <v>0.01222930012985346</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42825</v>
       </c>
       <c r="B30">
-        <v>0.4294465700000001</v>
-      </c>
-      <c r="C30">
         <v>0.01436575125706585</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42855</v>
       </c>
       <c r="B31">
-        <v>0.44579879</v>
-      </c>
-      <c r="C31">
         <v>0.01143954614547082</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42886</v>
       </c>
       <c r="B32">
-        <v>0.4910032499999999</v>
-      </c>
-      <c r="C32">
         <v>0.03126607956284144</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42916</v>
       </c>
       <c r="B33">
-        <v>0.5075618799999999</v>
-      </c>
-      <c r="C33">
         <v>0.01110569678503381</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42947</v>
       </c>
       <c r="B34">
-        <v>0.52393965</v>
-      </c>
-      <c r="C34">
         <v>0.01086374643540333</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42978</v>
       </c>
       <c r="B35">
-        <v>0.54496499</v>
-      </c>
-      <c r="C35">
         <v>0.01379670120138954</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43008</v>
       </c>
       <c r="B36">
-        <v>0.55381955</v>
-      </c>
-      <c r="C36">
         <v>0.005731236667052331</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43039</v>
       </c>
       <c r="B37">
-        <v>0.56323397</v>
-      </c>
-      <c r="C37">
         <v>0.00605888888449102</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43069</v>
       </c>
       <c r="B38">
-        <v>0.5736956499999999</v>
-      </c>
-      <c r="C38">
         <v>0.006692331538828977</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43100</v>
       </c>
       <c r="B39">
-        <v>0.57872349</v>
-      </c>
-      <c r="C39">
         <v>0.00319492527033427</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43131</v>
       </c>
       <c r="B40">
-        <v>0.5811962900000001</v>
-      </c>
-      <c r="C40">
         <v>0.001566328755898905</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43159</v>
       </c>
       <c r="B41">
-        <v>0.59221148</v>
-      </c>
-      <c r="C41">
         <v>0.006966364688346216</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43190</v>
       </c>
       <c r="B42">
-        <v>0.59496386</v>
-      </c>
-      <c r="C42">
         <v>0.001728652276769216</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43220</v>
       </c>
       <c r="B43">
-        <v>0.57680843</v>
-      </c>
-      <c r="C43">
         <v>-0.0113829726524336</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43251</v>
       </c>
       <c r="B44">
-        <v>0.6076697799999999</v>
-      </c>
-      <c r="C44">
         <v>0.01957203513936046</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43281</v>
       </c>
       <c r="B45">
-        <v>0.62126276</v>
-      </c>
-      <c r="C45">
         <v>0.008455082112696077</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43312</v>
       </c>
       <c r="B46">
-        <v>0.6594293200000001</v>
-      </c>
-      <c r="C46">
         <v>0.02354125496597481</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43343</v>
       </c>
       <c r="B47">
-        <v>0.7137897900000001</v>
-      </c>
-      <c r="C47">
         <v>0.0327585329154001</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43373</v>
       </c>
       <c r="B48">
-        <v>0.6813397000000001</v>
-      </c>
-      <c r="C48">
         <v>-0.01893469676931614</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
       <c r="B49">
-        <v>0.71004589</v>
-      </c>
-      <c r="C49">
         <v>0.01707340283465619</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43434</v>
       </c>
       <c r="B50">
-        <v>0.68960249</v>
-      </c>
-      <c r="C50">
         <v>-0.01195488385402332</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43465</v>
       </c>
       <c r="B51">
-        <v>0.6912029799999999</v>
-      </c>
-      <c r="C51">
         <v>0.0009472583104443988</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43496</v>
       </c>
       <c r="B52">
-        <v>0.7068762099999999</v>
-      </c>
-      <c r="C52">
         <v>0.009267503774147867</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43524</v>
       </c>
       <c r="B53">
-        <v>0.76175594</v>
-      </c>
-      <c r="C53">
         <v>0.03215214417921963</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43555</v>
       </c>
       <c r="B54">
-        <v>0.74924455</v>
-      </c>
-      <c r="C54">
         <v>-0.007101659041376607</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43585</v>
       </c>
       <c r="B55">
-        <v>0.78033682</v>
-      </c>
-      <c r="C55">
         <v>0.01777468450594855</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43616</v>
       </c>
       <c r="B56">
-        <v>0.76652575</v>
-      </c>
-      <c r="C56">
         <v>-0.007757560167743982</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43646</v>
       </c>
       <c r="B57">
-        <v>0.8165076</v>
-      </c>
-      <c r="C57">
         <v>0.02829387004406803</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43677</v>
       </c>
       <c r="B58">
-        <v>0.83668064</v>
-      </c>
-      <c r="C58">
         <v>0.01110539807265321</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43708</v>
       </c>
       <c r="B59">
-        <v>0.77704076</v>
-      </c>
-      <c r="C59">
         <v>-0.03247155694960668</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43738</v>
       </c>
       <c r="B60">
-        <v>0.78671281</v>
-      </c>
-      <c r="C60">
         <v>0.005442784553799429</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43769</v>
       </c>
       <c r="B61">
-        <v>0.8002162399999999</v>
-      </c>
-      <c r="C61">
         <v>0.007557694736626264</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43799</v>
       </c>
       <c r="B62">
-        <v>0.80133583</v>
-      </c>
-      <c r="C62">
         <v>0.000621919731154108</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43830</v>
       </c>
       <c r="B63">
-        <v>0.8244036400000001</v>
-      </c>
-      <c r="C63">
         <v>0.01280594635149179</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43861</v>
       </c>
       <c r="B64">
-        <v>0.8597693099999999</v>
-      </c>
-      <c r="C64">
         <v>0.0193847837313017</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43890</v>
       </c>
       <c r="B65">
-        <v>0.82847249</v>
-      </c>
-      <c r="C65">
         <v>-0.01682833447767773</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43921</v>
       </c>
       <c r="B66">
-        <v>0.4468078</v>
-      </c>
-      <c r="C66">
         <v>-0.2087341713300811</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43951</v>
       </c>
       <c r="B67">
-        <v>0.5298458500000001</v>
-      </c>
-      <c r="C67">
         <v>0.05739397451409922</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43982</v>
       </c>
       <c r="B68">
-        <v>0.55950425</v>
-      </c>
-      <c r="C68">
         <v>0.01938652838781119</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44012</v>
       </c>
       <c r="B69">
-        <v>0.6007511999999999</v>
-      </c>
-      <c r="C69">
         <v>0.02644875767411325</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44043</v>
       </c>
       <c r="B70">
-        <v>0.6605454100000001</v>
-      </c>
-      <c r="C70">
         <v>0.03735384362042038</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>44074</v>
       </c>
       <c r="B71">
-        <v>0.6881734799999999</v>
-      </c>
-      <c r="C71">
         <v>0.01663794909408689</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44104</v>
       </c>
       <c r="B72">
-        <v>0.6839506500000001</v>
-      </c>
-      <c r="C72">
         <v>-0.002501419463122878</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>44135</v>
       </c>
       <c r="B73">
-        <v>0.69188106</v>
-      </c>
-      <c r="C73">
         <v>0.004709407606451999</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>44165</v>
       </c>
       <c r="B74">
-        <v>0.77653711</v>
-      </c>
-      <c r="C74">
-        <v>0.05003664382885153</v>
+        <v>0.044676302481925</v>
       </c>
     </row>
   </sheetData>
